--- a/biology/Botanique/Rhus_coriaria/Rhus_coriaria.xlsx
+++ b/biology/Botanique/Rhus_coriaria/Rhus_coriaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Sumac des corroyeurs (Rhus coriaria) est un arbuste principalement méditerranéen pouvant atteindre 4 mètres de haut.
 Les sumacs sont des plantes dans divers genres, dont le genre Rhus, qui compte 125 espèces.
@@ -513,9 +525,11 @@
           <t>Feuillage</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les feuilles du sumac des corroyeurs sont imparipennées à 7 à 15 folioles dentées, vertes avec le dessous virant au gris et couvertes d'un léger duvet. Leur rachis est velu et de couleur rose vif, il est élargi en aile étroite, au moins vers le haut de la feuille[1]. En automne, les feuilles prennent des couleurs allant du rose au jaune.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les feuilles du sumac des corroyeurs sont imparipennées à 7 à 15 folioles dentées, vertes avec le dessous virant au gris et couvertes d'un léger duvet. Leur rachis est velu et de couleur rose vif, il est élargi en aile étroite, au moins vers le haut de la feuille. En automne, les feuilles prennent des couleurs allant du rose au jaune.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Fleurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Regroupées en panicules de 15 à 20 centimètres, les fleurs, de taille minuscule, sont de couleur jaunâtre. Une fois écrasées, elles sont collantes.
 </t>
@@ -575,7 +591,9 @@
           <t>Fruits</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fruits sont de petites drupes de couleur brun pourpre recouvertes d'un duvet et regroupées en grappes.
 </t>
@@ -606,7 +624,9 @@
           <t>Tiges</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Les jeunes tiges sont velues et de couleur rose vif. Avec le temps, elles perdent leur duvet, passent à une couleur beige puis gris clair avec un aspect lisse et une forme tortueuse.
 </t>
@@ -637,7 +657,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Certaines parties du sumac des corroyeurs sont utilisées à des fins diverses :
 Les fruits comme épice, réduits en poudre rouge foncé, au goût acide et astringent. En Iran (par exemple), le sumac en poudre est souvent proposé sur la table avec les brochettes de viande hachée et le riz afin que chacun en saupoudre sur son assiette à sa convenance. En Syrie et au Liban, le sumac en poudre entre dans la composition du zaatar, un mélange d'herbes et d'épices. Il s’utilise en infusion ou en remplacement des câpres et du piment rouge.
